--- a/cnn/benchmark_results/AMZN.xlsx
+++ b/cnn/benchmark_results/AMZN.xlsx
@@ -488,28 +488,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2106937799043063</v>
+        <v>0.1772488038277512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1707172835997673</v>
+        <v>0.1428755560445422</v>
       </c>
       <c r="E2" t="n">
-        <v>67.46411483253588</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F2" t="n">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G2" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>32.53588516746412</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I2" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="J2" t="n">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -520,28 +520,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2952870813397129</v>
+        <v>0.2175837320574163</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2439810170655223</v>
+        <v>0.1826121128183708</v>
       </c>
       <c r="E3" t="n">
-        <v>67.94258373205741</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>32.05741626794259</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I3" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J3" t="n">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
@@ -552,28 +552,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4351674641148325</v>
+        <v>0.2950239234449764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3572681481370114</v>
+        <v>0.2527859209152882</v>
       </c>
       <c r="E4" t="n">
-        <v>67.70334928229666</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="F4" t="n">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>32.29665071770335</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="J4" t="n">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5">
@@ -584,28 +584,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.548612440191388</v>
+        <v>0.2078468899521534</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4490306910488049</v>
+        <v>0.2143200259898922</v>
       </c>
       <c r="E5" t="n">
-        <v>68.18181818181817</v>
+        <v>77.03349282296651</v>
       </c>
       <c r="F5" t="n">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G5" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>31.81818181818182</v>
+        <v>22.96650717703349</v>
       </c>
       <c r="I5" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="J5" t="n">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -616,28 +616,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7761483253588521</v>
+        <v>0.2639473684210528</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6442049245549273</v>
+        <v>0.2740235553986211</v>
       </c>
       <c r="E6" t="n">
-        <v>67.94258373205741</v>
+        <v>76.79425837320574</v>
       </c>
       <c r="F6" t="n">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G6" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>32.05741626794259</v>
+        <v>23.20574162679426</v>
       </c>
       <c r="I6" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="J6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -648,28 +648,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9931100478468905</v>
+        <v>0.547751196172249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8120561049858249</v>
+        <v>0.4953168035160449</v>
       </c>
       <c r="E7" t="n">
-        <v>67.94258373205741</v>
+        <v>77.75119617224881</v>
       </c>
       <c r="F7" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>32.05741626794259</v>
+        <v>22.2488038277512</v>
       </c>
       <c r="I7" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J7" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
@@ -680,28 +680,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1.142535885167464</v>
+        <v>0.5643540669856461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.916692544183767</v>
+        <v>0.5295085848323486</v>
       </c>
       <c r="E8" t="n">
-        <v>68.18181818181817</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F8" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G8" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
-        <v>31.81818181818182</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I8" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
@@ -712,28 +712,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1.327368421052632</v>
+        <v>0.9981339712918662</v>
       </c>
       <c r="D9" t="n">
-        <v>1.049297777793969</v>
+        <v>0.8462176751849866</v>
       </c>
       <c r="E9" t="n">
-        <v>68.42105263157895</v>
+        <v>78.22966507177034</v>
       </c>
       <c r="F9" t="n">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G9" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>31.57894736842105</v>
+        <v>21.77033492822967</v>
       </c>
       <c r="I9" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J9" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -744,28 +744,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1.701626794258374</v>
+        <v>1.088612440191388</v>
       </c>
       <c r="D10" t="n">
-        <v>1.316847889590395</v>
+        <v>0.9228313803116013</v>
       </c>
       <c r="E10" t="n">
-        <v>67.70334928229666</v>
+        <v>78.22966507177034</v>
       </c>
       <c r="F10" t="n">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G10" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>32.29665071770335</v>
+        <v>21.77033492822967</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -776,28 +776,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1.912488038277512</v>
+        <v>0.9105741626794261</v>
       </c>
       <c r="D11" t="n">
-        <v>1.472020096261862</v>
+        <v>0.8278698187525276</v>
       </c>
       <c r="E11" t="n">
-        <v>67.70334928229666</v>
+        <v>78.70813397129187</v>
       </c>
       <c r="F11" t="n">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G11" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H11" t="n">
-        <v>32.29665071770335</v>
+        <v>21.29186602870814</v>
       </c>
       <c r="I11" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
@@ -808,28 +808,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>1.942966507177034</v>
+        <v>0.958755980861244</v>
       </c>
       <c r="D12" t="n">
-        <v>1.506745640404902</v>
+        <v>0.8760898796318173</v>
       </c>
       <c r="E12" t="n">
-        <v>68.18181818181817</v>
+        <v>78.4688995215311</v>
       </c>
       <c r="F12" t="n">
+        <v>170</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21.5311004784689</v>
+      </c>
+      <c r="I12" t="n">
+        <v>70</v>
+      </c>
+      <c r="J12" t="n">
         <v>158</v>
-      </c>
-      <c r="G12" t="n">
-        <v>32</v>
-      </c>
-      <c r="H12" t="n">
-        <v>31.81818181818182</v>
-      </c>
-      <c r="I12" t="n">
-        <v>101</v>
-      </c>
-      <c r="J12" t="n">
-        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -840,28 +840,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>2.168947368421053</v>
+        <v>1.091578947368421</v>
       </c>
       <c r="D13" t="n">
-        <v>1.677846792543525</v>
+        <v>0.9952970847499589</v>
       </c>
       <c r="E13" t="n">
-        <v>68.42105263157895</v>
+        <v>79.18660287081339</v>
       </c>
       <c r="F13" t="n">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G13" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>31.57894736842105</v>
+        <v>20.8133971291866</v>
       </c>
       <c r="I13" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="J13" t="n">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -872,28 +872,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>2.507918660287082</v>
+        <v>1.132655502392345</v>
       </c>
       <c r="D14" t="n">
-        <v>1.933614117840979</v>
+        <v>1.045228834254312</v>
       </c>
       <c r="E14" t="n">
-        <v>68.89952153110048</v>
+        <v>79.18660287081339</v>
       </c>
       <c r="F14" t="n">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G14" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>31.10047846889952</v>
+        <v>20.8133971291866</v>
       </c>
       <c r="I14" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -904,28 +904,28 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>2.856291866028709</v>
+        <v>1.285574162679426</v>
       </c>
       <c r="D15" t="n">
-        <v>2.200599887608297</v>
+        <v>1.180530050920379</v>
       </c>
       <c r="E15" t="n">
-        <v>68.89952153110048</v>
+        <v>79.18660287081339</v>
       </c>
       <c r="F15" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>31.10047846889952</v>
+        <v>20.8133971291866</v>
       </c>
       <c r="I15" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J15" t="n">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -936,28 +936,28 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>3.129521531100479</v>
+        <v>1.490382775119618</v>
       </c>
       <c r="D16" t="n">
-        <v>2.409340712067401</v>
+        <v>1.351887943280318</v>
       </c>
       <c r="E16" t="n">
-        <v>68.89952153110048</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F16" t="n">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>31.10047846889952</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I16" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J16" t="n">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -968,28 +968,28 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>3.384617224880383</v>
+        <v>1.532703349282297</v>
       </c>
       <c r="D17" t="n">
-        <v>2.607103348371424</v>
+        <v>1.407039904482786</v>
       </c>
       <c r="E17" t="n">
-        <v>69.37799043062201</v>
+        <v>80.38277511961722</v>
       </c>
       <c r="F17" t="n">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G17" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>30.62200956937799</v>
+        <v>19.61722488038277</v>
       </c>
       <c r="I17" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J17" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
@@ -1000,28 +1000,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>3.627775119617226</v>
+        <v>1.511124401913876</v>
       </c>
       <c r="D18" t="n">
-        <v>2.796216965998551</v>
+        <v>1.403277989548023</v>
       </c>
       <c r="E18" t="n">
-        <v>69.13875598086125</v>
+        <v>79.42583732057416</v>
       </c>
       <c r="F18" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G18" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>30.86124401913876</v>
+        <v>20.57416267942584</v>
       </c>
       <c r="I18" t="n">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="J18" t="n">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -1032,28 +1032,28 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>3.877344497607655</v>
+        <v>1.599306220095694</v>
       </c>
       <c r="D19" t="n">
-        <v>2.991153132650367</v>
+        <v>1.484359540062445</v>
       </c>
       <c r="E19" t="n">
-        <v>69.37799043062201</v>
+        <v>79.18660287081339</v>
       </c>
       <c r="F19" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G19" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>30.62200956937799</v>
+        <v>20.8133971291866</v>
       </c>
       <c r="I19" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="J19" t="n">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1064,28 +1064,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>4.203612440191388</v>
+        <v>1.672799043062202</v>
       </c>
       <c r="D20" t="n">
-        <v>3.244613030104367</v>
+        <v>1.56218941693526</v>
       </c>
       <c r="E20" t="n">
-        <v>69.37799043062201</v>
+        <v>79.18660287081339</v>
       </c>
       <c r="F20" t="n">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>30.62200956937799</v>
+        <v>20.8133971291866</v>
       </c>
       <c r="I20" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J20" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21">
@@ -1096,28 +1096,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>4.566985645933014</v>
+        <v>1.681961722488038</v>
       </c>
       <c r="D21" t="n">
-        <v>3.523418335352264</v>
+        <v>1.603344877170443</v>
       </c>
       <c r="E21" t="n">
-        <v>69.37799043062201</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F21" t="n">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G21" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>30.62200956937799</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I21" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="J21" t="n">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
@@ -1128,28 +1128,28 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>4.78299043062201</v>
+        <v>1.927918660287082</v>
       </c>
       <c r="D22" t="n">
-        <v>3.692213992909847</v>
+        <v>1.782041084377589</v>
       </c>
       <c r="E22" t="n">
-        <v>69.61722488038278</v>
+        <v>79.42583732057416</v>
       </c>
       <c r="F22" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G22" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H22" t="n">
-        <v>30.38277511961722</v>
+        <v>20.57416267942584</v>
       </c>
       <c r="I22" t="n">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="J22" t="n">
-        <v>114</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -1160,28 +1160,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>5.040454545454546</v>
+        <v>2.078827751196172</v>
       </c>
       <c r="D23" t="n">
-        <v>3.886744865166303</v>
+        <v>1.901192731176019</v>
       </c>
       <c r="E23" t="n">
-        <v>69.85645933014354</v>
+        <v>79.42583732057416</v>
       </c>
       <c r="F23" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G23" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>30.14354066985646</v>
+        <v>20.57416267942584</v>
       </c>
       <c r="I23" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J23" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
@@ -1192,28 +1192,28 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>5.100454545454546</v>
+        <v>2.266435406698565</v>
       </c>
       <c r="D24" t="n">
-        <v>3.932077194572817</v>
+        <v>2.045985028102255</v>
       </c>
       <c r="E24" t="n">
-        <v>70.33492822966507</v>
+        <v>79.42583732057416</v>
       </c>
       <c r="F24" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G24" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H24" t="n">
-        <v>29.66507177033493</v>
+        <v>20.57416267942584</v>
       </c>
       <c r="I24" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="J24" t="n">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
@@ -1224,28 +1224,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>5.715693779904307</v>
+        <v>2.293492822966507</v>
       </c>
       <c r="D25" t="n">
-        <v>4.3907095150884</v>
+        <v>2.092525872193715</v>
       </c>
       <c r="E25" t="n">
-        <v>69.37799043062201</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F25" t="n">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G25" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
-        <v>30.62200956937799</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I25" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J25" t="n">
-        <v>115</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26">
@@ -1256,28 +1256,28 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>5.998612440191388</v>
+        <v>2.454114832535886</v>
       </c>
       <c r="D26" t="n">
-        <v>4.601136773540289</v>
+        <v>2.214860023802945</v>
       </c>
       <c r="E26" t="n">
-        <v>69.37799043062201</v>
+        <v>79.66507177033493</v>
       </c>
       <c r="F26" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G26" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
-        <v>30.62200956937799</v>
+        <v>20.33492822966507</v>
       </c>
       <c r="I26" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J26" t="n">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27">
@@ -1288,28 +1288,28 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>6.18433014354067</v>
+        <v>2.547296650717704</v>
       </c>
       <c r="D27" t="n">
-        <v>4.742322429654909</v>
+        <v>2.289794485630865</v>
       </c>
       <c r="E27" t="n">
-        <v>69.37799043062201</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F27" t="n">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G27" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H27" t="n">
-        <v>30.62200956937799</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I27" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="J27" t="n">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -1320,28 +1320,28 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>6.368277511961724</v>
+        <v>2.894688995215311</v>
       </c>
       <c r="D28" t="n">
-        <v>4.882903179874186</v>
+        <v>2.528535157329859</v>
       </c>
       <c r="E28" t="n">
-        <v>69.37799043062201</v>
+        <v>79.18660287081339</v>
       </c>
       <c r="F28" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H28" t="n">
-        <v>30.62200956937799</v>
+        <v>20.8133971291866</v>
       </c>
       <c r="I28" t="n">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="J28" t="n">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29">
@@ -1352,28 +1352,28 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>6.45291866028708</v>
+        <v>3.031626794258374</v>
       </c>
       <c r="D29" t="n">
-        <v>4.94906587314253</v>
+        <v>2.637163110109976</v>
       </c>
       <c r="E29" t="n">
-        <v>69.85645933014354</v>
+        <v>79.66507177033493</v>
       </c>
       <c r="F29" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G29" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H29" t="n">
-        <v>30.14354066985646</v>
+        <v>20.33492822966507</v>
       </c>
       <c r="I29" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="J29" t="n">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -1384,28 +1384,28 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>6.597392344497607</v>
+        <v>3.255382775119617</v>
       </c>
       <c r="D30" t="n">
-        <v>5.06424627062894</v>
+        <v>2.80753799473479</v>
       </c>
       <c r="E30" t="n">
-        <v>69.61722488038278</v>
+        <v>79.66507177033493</v>
       </c>
       <c r="F30" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G30" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>30.38277511961722</v>
+        <v>20.33492822966507</v>
       </c>
       <c r="I30" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="J30" t="n">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -1416,28 +1416,28 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>6.846602870813397</v>
+        <v>3.421100478468899</v>
       </c>
       <c r="D31" t="n">
-        <v>5.266555668787685</v>
+        <v>2.946338019116126</v>
       </c>
       <c r="E31" t="n">
-        <v>69.85645933014354</v>
+        <v>79.66507177033493</v>
       </c>
       <c r="F31" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G31" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H31" t="n">
-        <v>30.14354066985646</v>
+        <v>20.33492822966507</v>
       </c>
       <c r="I31" t="n">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="J31" t="n">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32">
@@ -1448,28 +1448,28 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>7.023803827751196</v>
+        <v>3.988732057416268</v>
       </c>
       <c r="D32" t="n">
-        <v>5.416053864786167</v>
+        <v>3.335766947613759</v>
       </c>
       <c r="E32" t="n">
-        <v>69.85645933014354</v>
+        <v>78.70813397129187</v>
       </c>
       <c r="F32" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G32" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H32" t="n">
-        <v>30.14354066985646</v>
+        <v>21.29186602870814</v>
       </c>
       <c r="I32" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J32" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33">
@@ -1480,28 +1480,28 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>7.255191387559809</v>
+        <v>4.265382775119617</v>
       </c>
       <c r="D33" t="n">
-        <v>5.604794283358588</v>
+        <v>3.547166903941922</v>
       </c>
       <c r="E33" t="n">
-        <v>69.85645933014354</v>
+        <v>78.70813397129187</v>
       </c>
       <c r="F33" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G33" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H33" t="n">
-        <v>30.14354066985646</v>
+        <v>21.29186602870814</v>
       </c>
       <c r="I33" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="J33" t="n">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34">
@@ -1512,28 +1512,28 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>7.492631578947369</v>
+        <v>3.983349282296651</v>
       </c>
       <c r="D34" t="n">
-        <v>5.797409229972807</v>
+        <v>3.398307979139812</v>
       </c>
       <c r="E34" t="n">
-        <v>69.85645933014354</v>
+        <v>79.90430622009569</v>
       </c>
       <c r="F34" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G34" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H34" t="n">
-        <v>30.14354066985646</v>
+        <v>20.09569377990431</v>
       </c>
       <c r="I34" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="J34" t="n">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
@@ -1544,28 +1544,28 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>7.234736842105263</v>
+        <v>4.634832535885168</v>
       </c>
       <c r="D35" t="n">
-        <v>5.627172360923451</v>
+        <v>3.844072421844914</v>
       </c>
       <c r="E35" t="n">
-        <v>71.05263157894737</v>
+        <v>79.18660287081339</v>
       </c>
       <c r="F35" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G35" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>28.94736842105263</v>
+        <v>20.8133971291866</v>
       </c>
       <c r="I35" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -1576,28 +1576,28 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>7.454210526315789</v>
+        <v>4.47311004784689</v>
       </c>
       <c r="D36" t="n">
-        <v>5.803226125171141</v>
+        <v>3.770254418171497</v>
       </c>
       <c r="E36" t="n">
-        <v>71.05263157894737</v>
+        <v>79.90430622009569</v>
       </c>
       <c r="F36" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G36" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H36" t="n">
-        <v>28.94736842105263</v>
+        <v>20.09569377990431</v>
       </c>
       <c r="I36" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="J36" t="n">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -1608,28 +1608,28 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>8.009856459330143</v>
+        <v>4.485454545454545</v>
       </c>
       <c r="D37" t="n">
-        <v>6.218715262059357</v>
+        <v>3.818383690763563</v>
       </c>
       <c r="E37" t="n">
-        <v>70.57416267942584</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F37" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G37" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H37" t="n">
-        <v>29.42583732057416</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I37" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J37" t="n">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -1640,28 +1640,28 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>7.91452153110048</v>
+        <v>4.605334928229667</v>
       </c>
       <c r="D38" t="n">
-        <v>6.176563702482292</v>
+        <v>3.92950723674995</v>
       </c>
       <c r="E38" t="n">
-        <v>71.05263157894737</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F38" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G38" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H38" t="n">
-        <v>28.94736842105263</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I38" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J38" t="n">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -1672,28 +1672,28 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>8.19066985645933</v>
+        <v>4.621291866028709</v>
       </c>
       <c r="D39" t="n">
-        <v>6.392039422980951</v>
+        <v>3.965037276657085</v>
       </c>
       <c r="E39" t="n">
-        <v>71.05263157894737</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F39" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H39" t="n">
-        <v>28.94736842105263</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I39" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="J39" t="n">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -1704,28 +1704,28 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>8.444306220095694</v>
+        <v>5.14555023923445</v>
       </c>
       <c r="D40" t="n">
-        <v>6.591076169620054</v>
+        <v>4.329928957559235</v>
       </c>
       <c r="E40" t="n">
-        <v>71.05263157894737</v>
+        <v>79.66507177033493</v>
       </c>
       <c r="F40" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G40" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H40" t="n">
-        <v>28.94736842105263</v>
+        <v>20.33492822966507</v>
       </c>
       <c r="I40" t="n">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="J40" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -1736,28 +1736,28 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>8.683086124401914</v>
+        <v>5.202894736842106</v>
       </c>
       <c r="D41" t="n">
-        <v>6.777685521715528</v>
+        <v>4.396691782666241</v>
       </c>
       <c r="E41" t="n">
-        <v>71.05263157894737</v>
+        <v>79.66507177033493</v>
       </c>
       <c r="F41" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G41" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>28.94736842105263</v>
+        <v>20.33492822966507</v>
       </c>
       <c r="I41" t="n">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="J41" t="n">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -1768,28 +1768,28 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>8.891387559808614</v>
+        <v>5.332535885167464</v>
       </c>
       <c r="D42" t="n">
-        <v>6.942043357232618</v>
+        <v>4.508656858542325</v>
       </c>
       <c r="E42" t="n">
-        <v>71.05263157894737</v>
+        <v>79.90430622009569</v>
       </c>
       <c r="F42" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G42" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>28.94736842105263</v>
+        <v>20.09569377990431</v>
       </c>
       <c r="I42" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J42" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -1800,28 +1800,28 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>9.091196172248804</v>
+        <v>5.382440191387559</v>
       </c>
       <c r="D43" t="n">
-        <v>7.10730005983676</v>
+        <v>4.568973871801996</v>
       </c>
       <c r="E43" t="n">
-        <v>71.05263157894737</v>
+        <v>79.66507177033493</v>
       </c>
       <c r="F43" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G43" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>28.94736842105263</v>
+        <v>20.33492822966507</v>
       </c>
       <c r="I43" t="n">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="J43" t="n">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -1832,28 +1832,28 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>9.249545454545455</v>
+        <v>5.438014354066986</v>
       </c>
       <c r="D44" t="n">
-        <v>7.249626252344956</v>
+        <v>4.64087146825316</v>
       </c>
       <c r="E44" t="n">
-        <v>71.05263157894737</v>
+        <v>79.90430622009569</v>
       </c>
       <c r="F44" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G44" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H44" t="n">
-        <v>28.94736842105263</v>
+        <v>20.09569377990431</v>
       </c>
       <c r="I44" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="J44" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -1864,28 +1864,28 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>9.409114832535884</v>
+        <v>5.590502392344497</v>
       </c>
       <c r="D45" t="n">
-        <v>7.394812204464047</v>
+        <v>4.778083499640416</v>
       </c>
       <c r="E45" t="n">
-        <v>71.05263157894737</v>
+        <v>79.90430622009569</v>
       </c>
       <c r="F45" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G45" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>28.94736842105263</v>
+        <v>20.09569377990431</v>
       </c>
       <c r="I45" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="J45" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -1896,28 +1896,28 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>9.43578947368421</v>
+        <v>5.752392344497608</v>
       </c>
       <c r="D46" t="n">
-        <v>7.447531174262643</v>
+        <v>4.923415665031343</v>
       </c>
       <c r="E46" t="n">
-        <v>71.29186602870813</v>
+        <v>79.90430622009569</v>
       </c>
       <c r="F46" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G46" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
-        <v>28.70813397129186</v>
+        <v>20.09569377990431</v>
       </c>
       <c r="I46" t="n">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="J46" t="n">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
@@ -1928,28 +1928,28 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>8.928229665071772</v>
+        <v>5.754114832535886</v>
       </c>
       <c r="D47" t="n">
-        <v>7.142592996329846</v>
+        <v>4.963561756280289</v>
       </c>
       <c r="E47" t="n">
-        <v>72.00956937799043</v>
+        <v>79.90430622009569</v>
       </c>
       <c r="F47" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G47" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>27.99043062200957</v>
+        <v>20.09569377990431</v>
       </c>
       <c r="I47" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="J47" t="n">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48">
@@ -1960,28 +1960,28 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>9.082153110047846</v>
+        <v>5.670287081339714</v>
       </c>
       <c r="D48" t="n">
-        <v>7.286978031841694</v>
+        <v>4.944999645571737</v>
       </c>
       <c r="E48" t="n">
-        <v>72.00956937799043</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F48" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G48" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
-        <v>27.99043062200957</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I48" t="n">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J48" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
@@ -1992,28 +1992,28 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>9.678062200956939</v>
+        <v>5.568062200956938</v>
       </c>
       <c r="D49" t="n">
-        <v>7.740093462691322</v>
+        <v>4.925253652521302</v>
       </c>
       <c r="E49" t="n">
-        <v>71.5311004784689</v>
+        <v>80.38277511961722</v>
       </c>
       <c r="F49" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G49" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
-        <v>28.4688995215311</v>
+        <v>19.61722488038277</v>
       </c>
       <c r="I49" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J49" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
@@ -2024,28 +2024,28 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>9.489114832535886</v>
+        <v>5.882272727272727</v>
       </c>
       <c r="D50" t="n">
-        <v>7.647149427685177</v>
+        <v>5.16411995453092</v>
       </c>
       <c r="E50" t="n">
-        <v>72.00956937799043</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F50" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G50" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H50" t="n">
-        <v>27.99043062200957</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I50" t="n">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J50" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
@@ -2056,28 +2056,28 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>9.460980861244021</v>
+        <v>5.891124401913875</v>
       </c>
       <c r="D51" t="n">
-        <v>7.647602973653149</v>
+        <v>5.197510901261207</v>
       </c>
       <c r="E51" t="n">
-        <v>72.24880382775119</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F51" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G51" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H51" t="n">
-        <v>27.7511961722488</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I51" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="J51" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52">
@@ -2088,28 +2088,28 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>9.455023923444976</v>
+        <v>5.950669856459331</v>
       </c>
       <c r="D52" t="n">
-        <v>7.677225538569182</v>
+        <v>5.262436044058343</v>
       </c>
       <c r="E52" t="n">
-        <v>72.48803827751196</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F52" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G52" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>27.51196172248804</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I52" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="J52" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
@@ -2120,28 +2120,28 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>9.613277511961723</v>
+        <v>5.975143540669856</v>
       </c>
       <c r="D53" t="n">
-        <v>7.817647330515437</v>
+        <v>5.30687523286409</v>
       </c>
       <c r="E53" t="n">
-        <v>72.48803827751196</v>
+        <v>80.14354066985646</v>
       </c>
       <c r="F53" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G53" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H53" t="n">
-        <v>27.51196172248804</v>
+        <v>19.85645933014354</v>
       </c>
       <c r="I53" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="J53" t="n">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54">
@@ -2152,28 +2152,28 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>10.03205741626794</v>
+        <v>5.879473684210526</v>
       </c>
       <c r="D54" t="n">
-        <v>8.132372815522961</v>
+        <v>5.273145369835357</v>
       </c>
       <c r="E54" t="n">
-        <v>72.24880382775119</v>
+        <v>80.38277511961722</v>
       </c>
       <c r="F54" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G54" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H54" t="n">
-        <v>27.7511961722488</v>
+        <v>19.61722488038277</v>
       </c>
       <c r="I54" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J54" t="n">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
@@ -2184,28 +2184,28 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>10.23471291866029</v>
+        <v>5.974425837320573</v>
       </c>
       <c r="D55" t="n">
-        <v>8.306720420033008</v>
+        <v>5.371144768653502</v>
       </c>
       <c r="E55" t="n">
-        <v>72.24880382775119</v>
+        <v>80.38277511961722</v>
       </c>
       <c r="F55" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G55" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>27.7511961722488</v>
+        <v>19.61722488038277</v>
       </c>
       <c r="I55" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="J55" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
@@ -2216,28 +2216,28 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>9.587344497607656</v>
+        <v>6.284234449760765</v>
       </c>
       <c r="D56" t="n">
-        <v>7.869001961089393</v>
+        <v>5.609740046809951</v>
       </c>
       <c r="E56" t="n">
-        <v>73.68421052631578</v>
+        <v>80.62200956937799</v>
       </c>
       <c r="F56" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G56" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H56" t="n">
-        <v>26.31578947368421</v>
+        <v>19.37799043062201</v>
       </c>
       <c r="I56" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="J56" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
@@ -2248,28 +2248,28 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>9.924856459330144</v>
+        <v>5.85188995215311</v>
       </c>
       <c r="D57" t="n">
-        <v>8.132892749714966</v>
+        <v>5.3616685732345</v>
       </c>
       <c r="E57" t="n">
-        <v>73.68421052631578</v>
+        <v>82.05741626794259</v>
       </c>
       <c r="F57" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G57" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>26.31578947368421</v>
+        <v>17.94258373205741</v>
       </c>
       <c r="I57" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="J57" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
@@ -2280,28 +2280,28 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>10.23650717703349</v>
+        <v>6.110956937799044</v>
       </c>
       <c r="D58" t="n">
-        <v>8.378552288673328</v>
+        <v>5.569391908723424</v>
       </c>
       <c r="E58" t="n">
-        <v>73.68421052631578</v>
+        <v>82.05741626794259</v>
       </c>
       <c r="F58" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G58" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>26.31578947368421</v>
+        <v>17.94258373205741</v>
       </c>
       <c r="I58" t="n">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="J58" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -2312,28 +2312,28 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>10.55332535885168</v>
+        <v>5.849641148325359</v>
       </c>
       <c r="D59" t="n">
-        <v>8.62107223612464</v>
+        <v>5.439318177949682</v>
       </c>
       <c r="E59" t="n">
-        <v>73.68421052631578</v>
+        <v>82.53588516746412</v>
       </c>
       <c r="F59" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G59" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
-        <v>26.31578947368421</v>
+        <v>17.46411483253588</v>
       </c>
       <c r="I59" t="n">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="J59" t="n">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -2344,28 +2344,28 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>10.38411483253589</v>
+        <v>6.134497607655503</v>
       </c>
       <c r="D60" t="n">
-        <v>8.535937484571342</v>
+        <v>5.646649339777142</v>
       </c>
       <c r="E60" t="n">
-        <v>74.88038277511961</v>
+        <v>82.29665071770334</v>
       </c>
       <c r="F60" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
-        <v>25.11961722488038</v>
+        <v>17.70334928229665</v>
       </c>
       <c r="I60" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J60" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -2376,28 +2376,28 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>10.30736842105263</v>
+        <v>5.739043062200956</v>
       </c>
       <c r="D61" t="n">
-        <v>8.505018039839777</v>
+        <v>5.419969216662571</v>
       </c>
       <c r="E61" t="n">
-        <v>75.11961722488039</v>
+        <v>82.77511961722487</v>
       </c>
       <c r="F61" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G61" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>24.88038277511962</v>
+        <v>17.22488038277512</v>
       </c>
       <c r="I61" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="J61" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -2408,28 +2408,28 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>10.36684210526316</v>
+        <v>5.050478468899521</v>
       </c>
       <c r="D62" t="n">
-        <v>8.571709871061554</v>
+        <v>4.993309189300201</v>
       </c>
       <c r="E62" t="n">
-        <v>75.11961722488039</v>
+        <v>83.49282296650718</v>
       </c>
       <c r="F62" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>24.88038277511962</v>
+        <v>16.50717703349282</v>
       </c>
       <c r="I62" t="n">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="J62" t="n">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -2440,28 +2440,28 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>10.03162679425837</v>
+        <v>5.226746411483254</v>
       </c>
       <c r="D63" t="n">
-        <v>8.359243353590074</v>
+        <v>5.123092479133475</v>
       </c>
       <c r="E63" t="n">
-        <v>76.07655502392345</v>
+        <v>83.25358851674642</v>
       </c>
       <c r="F63" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>23.92344497607656</v>
+        <v>16.74641148325359</v>
       </c>
       <c r="I63" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="J63" t="n">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
@@ -2472,28 +2472,28 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>10.05165071770335</v>
+        <v>4.537535885167463</v>
       </c>
       <c r="D64" t="n">
-        <v>8.386319535197762</v>
+        <v>4.683356181544908</v>
       </c>
       <c r="E64" t="n">
-        <v>76.07655502392345</v>
+        <v>83.97129186602871</v>
       </c>
       <c r="F64" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>23.92344497607656</v>
+        <v>16.02870813397129</v>
       </c>
       <c r="I64" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J64" t="n">
-        <v>114</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65">
@@ -2504,13 +2504,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>9.382559808612442</v>
+        <v>3.857918660287082</v>
       </c>
       <c r="D65" t="n">
-        <v>7.939756489219334</v>
+        <v>4.255910410468239</v>
       </c>
       <c r="E65" t="n">
-        <v>77.03349282296651</v>
+        <v>84.688995215311</v>
       </c>
       <c r="F65" t="n">
         <v>208</v>
@@ -2519,13 +2519,13 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>22.96650717703349</v>
+        <v>15.311004784689</v>
       </c>
       <c r="I65" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="J65" t="n">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66">
@@ -2536,13 +2536,13 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>9.850693779904306</v>
+        <v>4.492368421052632</v>
       </c>
       <c r="D66" t="n">
-        <v>8.277835262773952</v>
+        <v>4.670718625062655</v>
       </c>
       <c r="E66" t="n">
-        <v>76.55502392344498</v>
+        <v>83.97129186602871</v>
       </c>
       <c r="F66" t="n">
         <v>206</v>
@@ -2551,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>23.44497607655502</v>
+        <v>16.02870813397129</v>
       </c>
       <c r="I66" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J66" t="n">
-        <v>114</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
@@ -2568,28 +2568,28 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>9.769712918660288</v>
+        <v>5.177559808612441</v>
       </c>
       <c r="D67" t="n">
-        <v>8.230218561921673</v>
+        <v>5.115070696075112</v>
       </c>
       <c r="E67" t="n">
-        <v>76.55502392344498</v>
+        <v>83.01435406698565</v>
       </c>
       <c r="F67" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>23.44497607655502</v>
+        <v>16.98564593301435</v>
       </c>
       <c r="I67" t="n">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J67" t="n">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
@@ -2600,13 +2600,13 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>8.857344497607656</v>
+        <v>4.79787081339713</v>
       </c>
       <c r="D68" t="n">
-        <v>7.607348611529074</v>
+        <v>4.874048955906041</v>
       </c>
       <c r="E68" t="n">
-        <v>77.75119617224881</v>
+        <v>83.49282296650718</v>
       </c>
       <c r="F68" t="n">
         <v>204</v>
@@ -2615,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>22.2488038277512</v>
+        <v>16.50717703349282</v>
       </c>
       <c r="I68" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="J68" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
@@ -2632,13 +2632,13 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>8.857153110047845</v>
+        <v>4.350406698564592</v>
       </c>
       <c r="D69" t="n">
-        <v>7.613671150886479</v>
+        <v>4.590902685575553</v>
       </c>
       <c r="E69" t="n">
-        <v>77.75119617224881</v>
+        <v>83.97129186602871</v>
       </c>
       <c r="F69" t="n">
         <v>203</v>
@@ -2647,13 +2647,13 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>22.2488038277512</v>
+        <v>16.02870813397129</v>
       </c>
       <c r="I69" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="J69" t="n">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70">
@@ -2664,13 +2664,13 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>8.454856459330145</v>
+        <v>3.595095693779905</v>
       </c>
       <c r="D70" t="n">
-        <v>7.336244758058619</v>
+        <v>4.111436820308409</v>
       </c>
       <c r="E70" t="n">
-        <v>78.4688995215311</v>
+        <v>84.92822966507177</v>
       </c>
       <c r="F70" t="n">
         <v>205</v>
@@ -2679,13 +2679,13 @@
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>21.5311004784689</v>
+        <v>15.07177033492823</v>
       </c>
       <c r="I70" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="J70" t="n">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71">
@@ -2696,13 +2696,13 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>7.840622009569378</v>
+        <v>2.917751196172249</v>
       </c>
       <c r="D71" t="n">
-        <v>6.921071437526294</v>
+        <v>3.685140071099169</v>
       </c>
       <c r="E71" t="n">
-        <v>79.18660287081339</v>
+        <v>85.64593301435407</v>
       </c>
       <c r="F71" t="n">
         <v>205</v>
@@ -2711,13 +2711,13 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>20.8133971291866</v>
+        <v>14.35406698564593</v>
       </c>
       <c r="I71" t="n">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="J71" t="n">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72">
@@ -2728,13 +2728,13 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>8.283205741626793</v>
+        <v>3.101961722488038</v>
       </c>
       <c r="D72" t="n">
-        <v>7.233867209930973</v>
+        <v>3.80982066831425</v>
       </c>
       <c r="E72" t="n">
-        <v>78.70813397129187</v>
+        <v>85.4066985645933</v>
       </c>
       <c r="F72" t="n">
         <v>204</v>
@@ -2743,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>21.29186602870814</v>
+        <v>14.5933014354067</v>
       </c>
       <c r="I72" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="J72" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73">
@@ -2760,13 +2760,13 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>7.84913875598086</v>
+        <v>3.561339712918659</v>
       </c>
       <c r="D73" t="n">
-        <v>6.944175629097978</v>
+        <v>4.114975220943498</v>
       </c>
       <c r="E73" t="n">
-        <v>79.18660287081339</v>
+        <v>84.92822966507177</v>
       </c>
       <c r="F73" t="n">
         <v>200</v>
@@ -2775,13 +2775,13 @@
         <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>20.8133971291866</v>
+        <v>15.07177033492823</v>
       </c>
       <c r="I73" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J73" t="n">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74">
@@ -2792,13 +2792,13 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>7.924760765550239</v>
+        <v>3.29854066985646</v>
       </c>
       <c r="D74" t="n">
-        <v>7.010045915615843</v>
+        <v>3.962029562638322</v>
       </c>
       <c r="E74" t="n">
-        <v>79.18660287081339</v>
+        <v>85.16746411483254</v>
       </c>
       <c r="F74" t="n">
         <v>196</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>20.8133971291866</v>
+        <v>14.83253588516746</v>
       </c>
       <c r="I74" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="J74" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75">
@@ -2824,13 +2824,13 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>8.22811004784689</v>
+        <v>3.708205741626795</v>
       </c>
       <c r="D75" t="n">
-        <v>7.237925264021211</v>
+        <v>4.241146713134619</v>
       </c>
       <c r="E75" t="n">
-        <v>78.94736842105263</v>
+        <v>84.688995215311</v>
       </c>
       <c r="F75" t="n">
         <v>201</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>21.05263157894737</v>
+        <v>15.311004784689</v>
       </c>
       <c r="I75" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="J75" t="n">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76">
@@ -2856,13 +2856,13 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>8.120598086124401</v>
+        <v>3.074617224880384</v>
       </c>
       <c r="D76" t="n">
-        <v>7.181939819145435</v>
+        <v>3.858106756533459</v>
       </c>
       <c r="E76" t="n">
-        <v>79.18660287081339</v>
+        <v>85.4066985645933</v>
       </c>
       <c r="F76" t="n">
         <v>203</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>20.8133971291866</v>
+        <v>14.5933014354067</v>
       </c>
       <c r="I76" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="J76" t="n">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77">
@@ -2888,13 +2888,13 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>7.744258373205741</v>
+        <v>3.463875598086124</v>
       </c>
       <c r="D77" t="n">
-        <v>6.933876670237627</v>
+        <v>4.123474858682611</v>
       </c>
       <c r="E77" t="n">
-        <v>79.66507177033493</v>
+        <v>84.92822966507177</v>
       </c>
       <c r="F77" t="n">
         <v>201</v>
@@ -2903,13 +2903,13 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>20.33492822966507</v>
+        <v>15.07177033492823</v>
       </c>
       <c r="I77" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="J77" t="n">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
@@ -2920,13 +2920,13 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>8.227368421052629</v>
+        <v>3.791196172248803</v>
       </c>
       <c r="D78" t="n">
-        <v>7.285713637509046</v>
+        <v>4.349445520535244</v>
       </c>
       <c r="E78" t="n">
-        <v>79.18660287081339</v>
+        <v>84.44976076555024</v>
       </c>
       <c r="F78" t="n">
         <v>203</v>
@@ -2935,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>20.8133971291866</v>
+        <v>15.55023923444976</v>
       </c>
       <c r="I78" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="J78" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79">
@@ -2952,13 +2952,13 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>8.129545454545454</v>
+        <v>3.769066985645932</v>
       </c>
       <c r="D79" t="n">
-        <v>7.23281063774825</v>
+        <v>4.354161598062942</v>
       </c>
       <c r="E79" t="n">
-        <v>79.42583732057416</v>
+        <v>84.688995215311</v>
       </c>
       <c r="F79" t="n">
         <v>203</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>20.57416267942584</v>
+        <v>15.311004784689</v>
       </c>
       <c r="I79" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="J79" t="n">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80">
@@ -2984,13 +2984,13 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>8.21232057416268</v>
+        <v>3.400071770334928</v>
       </c>
       <c r="D80" t="n">
-        <v>7.301296635616911</v>
+        <v>4.136614221407063</v>
       </c>
       <c r="E80" t="n">
-        <v>79.42583732057416</v>
+        <v>85.4066985645933</v>
       </c>
       <c r="F80" t="n">
         <v>200</v>
@@ -2999,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>20.57416267942584</v>
+        <v>14.5933014354067</v>
       </c>
       <c r="I80" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="J80" t="n">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81">
@@ -3016,13 +3016,13 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>7.96401913875598</v>
+        <v>3.576363636363635</v>
       </c>
       <c r="D81" t="n">
-        <v>7.141465698274456</v>
+        <v>4.262990126420294</v>
       </c>
       <c r="E81" t="n">
-        <v>79.66507177033493</v>
+        <v>85.16746411483254</v>
       </c>
       <c r="F81" t="n">
         <v>200</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>20.33492822966507</v>
+        <v>14.83253588516746</v>
       </c>
       <c r="I81" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J81" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82">
@@ -3048,13 +3048,13 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>7.977775119617223</v>
+        <v>3.683421052631579</v>
       </c>
       <c r="D82" t="n">
-        <v>7.160373289276861</v>
+        <v>4.340902902923287</v>
       </c>
       <c r="E82" t="n">
-        <v>79.66507177033493</v>
+        <v>85.16746411483254</v>
       </c>
       <c r="F82" t="n">
         <v>201</v>
@@ -3063,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>20.33492822966507</v>
+        <v>14.83253588516746</v>
       </c>
       <c r="I82" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J82" t="n">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83">
@@ -3080,13 +3080,13 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>7.866842105263159</v>
+        <v>3.36842105263158</v>
       </c>
       <c r="D83" t="n">
-        <v>7.093250861719412</v>
+        <v>4.156328760121299</v>
       </c>
       <c r="E83" t="n">
-        <v>79.90430622009569</v>
+        <v>85.4066985645933</v>
       </c>
       <c r="F83" t="n">
         <v>200</v>
@@ -3095,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>20.09569377990431</v>
+        <v>14.5933014354067</v>
       </c>
       <c r="I83" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J83" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84">
@@ -3112,13 +3112,13 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>7.972488038277512</v>
+        <v>3.12909090909091</v>
       </c>
       <c r="D84" t="n">
-        <v>7.178174920858464</v>
+        <v>4.025262650524525</v>
       </c>
       <c r="E84" t="n">
-        <v>79.90430622009569</v>
+        <v>85.88516746411483</v>
       </c>
       <c r="F84" t="n">
         <v>201</v>
@@ -3127,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>20.09569377990431</v>
+        <v>14.11483253588517</v>
       </c>
       <c r="I84" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="J84" t="n">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85">
@@ -3144,13 +3144,13 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>8.136291866028708</v>
+        <v>3.236866028708135</v>
       </c>
       <c r="D85" t="n">
-        <v>7.304514827711308</v>
+        <v>4.117319234428896</v>
       </c>
       <c r="E85" t="n">
-        <v>79.90430622009569</v>
+        <v>85.88516746411483</v>
       </c>
       <c r="F85" t="n">
         <v>201</v>
@@ -3159,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>20.09569377990431</v>
+        <v>14.11483253588517</v>
       </c>
       <c r="I85" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="J85" t="n">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86">
@@ -3176,13 +3176,13 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>7.915095693779903</v>
+        <v>3.135909090909092</v>
       </c>
       <c r="D86" t="n">
-        <v>7.16717788224078</v>
+        <v>4.076636934655007</v>
       </c>
       <c r="E86" t="n">
-        <v>80.38277511961722</v>
+        <v>86.1244019138756</v>
       </c>
       <c r="F86" t="n">
         <v>201</v>
@@ -3191,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>19.61722488038277</v>
+        <v>13.8755980861244</v>
       </c>
       <c r="I86" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="J86" t="n">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87">
@@ -3208,13 +3208,13 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>8.073014354066986</v>
+        <v>2.564545454545455</v>
       </c>
       <c r="D87" t="n">
-        <v>7.289314060928984</v>
+        <v>3.742335680901034</v>
       </c>
       <c r="E87" t="n">
-        <v>80.38277511961722</v>
+        <v>87.08133971291866</v>
       </c>
       <c r="F87" t="n">
         <v>199</v>
@@ -3223,13 +3223,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>19.61722488038277</v>
+        <v>12.91866028708134</v>
       </c>
       <c r="I87" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="J87" t="n">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88">
@@ -3240,13 +3240,13 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>8.231004784688997</v>
+        <v>1.634976076555025</v>
       </c>
       <c r="D88" t="n">
-        <v>7.41261979032362</v>
+        <v>3.193806264726925</v>
       </c>
       <c r="E88" t="n">
-        <v>80.38277511961722</v>
+        <v>88.03827751196172</v>
       </c>
       <c r="F88" t="n">
         <v>201</v>
@@ -3255,13 +3255,13 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>19.61722488038277</v>
+        <v>11.96172248803828</v>
       </c>
       <c r="I88" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J88" t="n">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89">
@@ -3272,13 +3272,13 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>8.362224880382776</v>
+        <v>1.810454545454546</v>
       </c>
       <c r="D89" t="n">
-        <v>7.520361292180981</v>
+        <v>3.327762294109642</v>
       </c>
       <c r="E89" t="n">
-        <v>80.38277511961722</v>
+        <v>88.03827751196172</v>
       </c>
       <c r="F89" t="n">
         <v>201</v>
@@ -3287,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>19.61722488038277</v>
+        <v>11.96172248803828</v>
       </c>
       <c r="I89" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J89" t="n">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90">
@@ -3304,13 +3304,13 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>8.394090909090909</v>
+        <v>1.659688995215312</v>
       </c>
       <c r="D90" t="n">
-        <v>7.564528490020736</v>
+        <v>3.260900037736707</v>
       </c>
       <c r="E90" t="n">
-        <v>80.62200956937799</v>
+        <v>88.27751196172248</v>
       </c>
       <c r="F90" t="n">
         <v>198</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>19.37799043062201</v>
+        <v>11.72248803827751</v>
       </c>
       <c r="I90" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J90" t="n">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91">
@@ -3336,13 +3336,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>8.525071770334932</v>
+        <v>1.184928229665074</v>
       </c>
       <c r="D91" t="n">
-        <v>7.670274013713299</v>
+        <v>2.996752399998063</v>
       </c>
       <c r="E91" t="n">
-        <v>80.62200956937799</v>
+        <v>88.75598086124403</v>
       </c>
       <c r="F91" t="n">
         <v>199</v>
@@ -3351,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>19.37799043062201</v>
+        <v>11.24401913875598</v>
       </c>
       <c r="I91" t="n">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="J91" t="n">
-        <v>138</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
